--- a/2° task/dati_filtrati/Gioia_Cecchettin.xlsx
+++ b/2° task/dati_filtrati/Gioia_Cecchettin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asant\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demai\OneDrive\Desktop\SENTIMENT ANALYSIS REDDIT\Sentiment_Analysis_Reddit\2° task\dati_filtrati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BD617A-7572-4660-8EDA-B279F8EB8430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB9396-B97F-4422-A304-D56909248793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="4905" yWindow="3570" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>mentre fumava. Un particolare degno di nota.</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Vicino be like![gif](giphy|3ohhwmBlmtmwrEQsxi)</t>
   </si>
   <si>
-    <t>Black umor</t>
-  </si>
-  <si>
-    <t>Presenza di Gif (o non testuale)</t>
-  </si>
-  <si>
     <t>Quando una donna scompare ed è stata vista l'ultima volta con l'ex, sa, finisce sempre in un unico modo</t>
   </si>
   <si>
@@ -117,12 +111,15 @@
   </si>
   <si>
     <t>Finalmente. Spero non veda mai più direttamente la luce del sole.</t>
+  </si>
+  <si>
+    <t>Ironia contestualizzata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,20 +500,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="180.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="180.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -538,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -549,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -571,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -582,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -593,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -604,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -612,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -623,56 +620,56 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -681,9 +678,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -692,9 +689,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -703,31 +700,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -738,7 +735,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
